--- a/Lila/data_399.xlsx
+++ b/Lila/data_399.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,567 +436,602 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>kabupaten_kota</t>
+          <t>index</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>kabupaten_kota_</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Laki-Laki_2018</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2018</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2019</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2019</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2020</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2020</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2022</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2022</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2023</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2023</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Laki-Laki_2024</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Perempuan_2024</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Kab. Jembrana</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>69.61</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>78.91</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>56.15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>83.12</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>68.94</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>90.38</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>72.42</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>85.91</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>75.45999999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>85.48999999999999</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>74.67</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>86.78</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>73.48999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Kab. Tabanan</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>83.65000000000001</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>71.11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>83.12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>67.94</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>81.26000000000001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>69.84</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>81.43000000000001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>68.72</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>83.15000000000001</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>70.89</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>81.28</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>67.17</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>83.17</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>67.59</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Kab. Badung</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>79.61</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>62.38</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>80.95</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>63.94</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>81.25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>63.82</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>77.65000000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>67.20999999999999</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>80.15000000000001</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>65.19</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>81.42</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>66.20999999999999</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>83.16</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>68.06999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Kab. Gianyar</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>83.09</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>74.79000000000001</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>82.37</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>69.78</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>78.11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>64.36</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>76.13</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>63.55</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>75.38</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>82.08</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>72.53</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>83.7</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>69.45999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Kab. Klungkung</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>80.48999999999999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>75.37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>80.34</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>71.95</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>78.69</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>72.01000000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>75.38</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>70.39</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>74.76000000000001</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>84.97</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>74.81999999999999</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>82.89</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>71.58</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kab. Bangli</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>88.7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>82.68000000000001</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>85.79000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>80.38</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>86.22</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>78.11</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>84.98</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>79.16</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>87.23999999999999</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>79.42</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>86.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>79.56</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>88.02</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>76.48999999999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Kab. Karangasem</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>84.17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>80.42</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>77.28</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>83.23</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>78.31</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>84.65000000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>77.7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>88.69</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>82.15000000000001</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>89.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>82.52</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>87.41</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>80.11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Kab. Buleleng</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>82.68000000000001</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>70.67</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>78.41</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>60.82</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>80.87</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>80.34999999999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>66</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>85.84999999999999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>65.18000000000001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>83.81999999999999</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>67.18000000000001</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>84.77</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>74.78</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Kota Denpasar</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>82.94</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>63.68</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>83.02</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>59.88</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>78.91</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>62.55</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>75.33</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>61.71</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>82.36</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>61.94</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>81.31</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>64.84</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>78.8</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>60.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Provinsi Bali</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>82.94</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>70.14</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>81.81999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>65.67</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>80.75</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>67.86</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>79.44</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>67.61</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>84.06</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>69.62</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>83.55</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>70.63</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>83.77</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>70.48999999999999</v>
       </c>
     </row>
